--- a/src/main/resources/Extra.xlsx
+++ b/src/main/resources/Extra.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoah\Desktop\jira\Ex1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoah\Desktop\jira\Ex1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C23EBC2-3DEE-4325-B941-CCFDE72012BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03B3BF5-4F43-4072-8E1F-B8BFD632EFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{5FB2F031-2DC3-4F01-B99A-0C5F74ECF030}"/>
+    <workbookView xWindow="3705" yWindow="4365" windowWidth="21600" windowHeight="11385" xr2:uid="{5FB2F031-2DC3-4F01-B99A-0C5F74ECF030}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Visa</t>
   </si>
@@ -53,9 +53,6 @@
     <t>XYZ</t>
   </si>
   <si>
-    <t>AB1</t>
-  </si>
-  <si>
     <t>AB2</t>
   </si>
   <si>
@@ -63,6 +60,12 @@
   </si>
   <si>
     <t>DEF</t>
+  </si>
+  <si>
+    <t>PLM</t>
+  </si>
+  <si>
+    <t>HPT</t>
   </si>
 </sst>
 </file>
@@ -431,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5378E55A-B405-46ED-B01C-4F39587AFA42}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +489,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -497,7 +500,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -508,7 +511,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -519,7 +522,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -544,6 +547,18 @@
       <c r="D8" s="3">
         <v>44778</v>
       </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44562</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -552,12 +567,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -566,7 +575,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100182A0FD1201485479895ED3ABF5F8B85" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9bb0b9dd5eed30345763edaeb969e930">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7b495183-be68-46b6-9f93-303bb4369acc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="424cb47d1cc6c82415f71c1929eaa6e4" ns3:_="">
     <xsd:import namespace="7b495183-be68-46b6-9f93-303bb4369acc"/>
@@ -750,23 +759,13 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD4DB0A-E2EC-4132-9C78-BB3A4EA829D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7b495183-be68-46b6-9f93-303bb4369acc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B47FB61C-7E50-4828-B697-8741CE929532}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -774,7 +773,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7219784-B903-4C1D-995C-141820D9F17E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -790,4 +789,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD4DB0A-E2EC-4132-9C78-BB3A4EA829D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7b495183-be68-46b6-9f93-303bb4369acc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>